--- a/results/acl/xlm-roberta/results_pos_postprocessed.xlsx
+++ b/results/acl/xlm-roberta/results_pos_postprocessed.xlsx
@@ -642,25 +642,25 @@
         <v>2</v>
       </c>
       <c r="C2" s="8">
-        <v>0.9042803712425543</v>
+        <v>0.9787187739463602</v>
       </c>
       <c r="D2" s="9">
-        <v>0.8226439488387126</v>
+        <v>0.810360153256705</v>
       </c>
       <c r="E2" s="9">
-        <v>0.7632636099182712</v>
+        <v>0.7337164750957854</v>
       </c>
       <c r="F2" s="9">
-        <v>0.8141478505794894</v>
+        <v>0.8548934865900383</v>
       </c>
       <c r="G2" s="9">
-        <v>0.8193193886503209</v>
+        <v>0.8065409961685823</v>
       </c>
       <c r="H2" s="9">
-        <v>0.6413168952301797</v>
+        <v>0.6467310344827586</v>
       </c>
       <c r="I2" s="9">
-        <v>0.5425959274137693</v>
+        <v>0.557391570881226</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>23</v>
@@ -669,34 +669,34 @@
         <v>23</v>
       </c>
       <c r="L2" s="9">
-        <v>0.752274091517754</v>
+        <v>0.7021180076628353</v>
       </c>
       <c r="M2" s="9">
-        <v>0.6939557648797156</v>
+        <v>0.6832613026819924</v>
       </c>
       <c r="N2" s="9">
-        <v>0.6444105831832664</v>
+        <v>0.6263785440613027</v>
       </c>
       <c r="O2" s="9">
-        <v>0.598051438334026</v>
+        <v>0.5810298850574712</v>
       </c>
       <c r="P2" s="9">
-        <v>0.5526157824260054</v>
+        <v>0.5382283524904214</v>
       </c>
       <c r="Q2" s="9">
-        <v>0.6839820843145403</v>
+        <v>0.6748842911877395</v>
       </c>
       <c r="R2" s="9">
-        <v>0.6508288313247449</v>
+        <v>0.6471846743295019</v>
       </c>
       <c r="S2" s="9">
-        <v>0.7581382462945007</v>
+        <v>0.7383662835249042</v>
       </c>
       <c r="T2" s="9">
-        <v>0.6963568361268874</v>
+        <v>0.6823540229885058</v>
       </c>
       <c r="U2" s="9">
-        <v>0.4888026965877084</v>
+        <v>0.5052137931034483</v>
       </c>
       <c r="V2" s="9">
         <v>0.1961952255621739</v>
@@ -710,25 +710,25 @@
         <v>3</v>
       </c>
       <c r="C3" s="9">
-        <v>0.8137841023913776</v>
+        <v>0.8256851196000076</v>
       </c>
       <c r="D3" s="8">
-        <v>0.8960929605927922</v>
+        <v>0.9869131266453287</v>
       </c>
       <c r="E3" s="9">
-        <v>0.8161839003031324</v>
+        <v>0.8633359216681502</v>
       </c>
       <c r="F3" s="9">
-        <v>0.8508336140114516</v>
+        <v>0.8864983617734513</v>
       </c>
       <c r="G3" s="9">
-        <v>0.7980801616705961</v>
+        <v>0.7844169617999659</v>
       </c>
       <c r="H3" s="9">
-        <v>0.5787302121926574</v>
+        <v>0.5815041381792011</v>
       </c>
       <c r="I3" s="9">
-        <v>0.5846244526776693</v>
+        <v>0.5821480653775497</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>23</v>
@@ -737,34 +737,34 @@
         <v>23</v>
       </c>
       <c r="L3" s="9">
-        <v>0.7593465813405187</v>
+        <v>0.8327115016761046</v>
       </c>
       <c r="M3" s="9">
-        <v>0.5955708992926911</v>
+        <v>0.626048749076722</v>
       </c>
       <c r="N3" s="9">
-        <v>0.5741411249578983</v>
+        <v>0.5896668623700309</v>
       </c>
       <c r="O3" s="9">
-        <v>0.515998652745032</v>
+        <v>0.5204068104770743</v>
       </c>
       <c r="P3" s="9">
-        <v>0.5028629168070057</v>
+        <v>0.4949527471070624</v>
       </c>
       <c r="Q3" s="9">
-        <v>0.6033597170764567</v>
+        <v>0.6242684797636409</v>
       </c>
       <c r="R3" s="9">
-        <v>0.6574604243853149</v>
+        <v>0.6516353856934528</v>
       </c>
       <c r="S3" s="9">
-        <v>0.7649461098012799</v>
+        <v>0.7544175299710233</v>
       </c>
       <c r="T3" s="9">
-        <v>0.7121505557426743</v>
+        <v>0.7061608681653757</v>
       </c>
       <c r="U3" s="9">
-        <v>0.4090602896598181</v>
+        <v>0.402435559932577</v>
       </c>
       <c r="V3" s="9">
         <v>0.203014482990906</v>
@@ -805,7 +805,7 @@
         <v>23</v>
       </c>
       <c r="L4" s="9">
-        <v>0.762818544673012</v>
+        <v>0.7619742093951489</v>
       </c>
       <c r="M4" s="9">
         <v>0.7866134479582437</v>
@@ -873,7 +873,7 @@
         <v>23</v>
       </c>
       <c r="L5" s="9">
-        <v>0.8159247146766335</v>
+        <v>0.7897283588066475</v>
       </c>
       <c r="M5" s="9">
         <v>0.7490155509577521</v>
@@ -941,7 +941,7 @@
         <v>23</v>
       </c>
       <c r="L6" s="9">
-        <v>0.6662699139351768</v>
+        <v>0.6918146859549533</v>
       </c>
       <c r="M6" s="9">
         <v>0.6705731550997985</v>
@@ -982,25 +982,25 @@
         <v>7</v>
       </c>
       <c r="C7" s="9">
-        <v>0.5361662386177912</v>
+        <v>0.5348817848817848</v>
       </c>
       <c r="D7" s="9">
-        <v>0.4161568993696008</v>
+        <v>0.4408924408924409</v>
       </c>
       <c r="E7" s="9">
-        <v>0.3770254494513192</v>
+        <v>0.3677156177156177</v>
       </c>
       <c r="F7" s="9">
-        <v>0.6134485173943498</v>
+        <v>0.6205461205461206</v>
       </c>
       <c r="G7" s="9">
-        <v>0.6109269203829092</v>
+        <v>0.6103896103896104</v>
       </c>
       <c r="H7" s="8">
-        <v>0.9408825589540042</v>
+        <v>0.9638694638694638</v>
       </c>
       <c r="I7" s="9">
-        <v>0.4914779360261499</v>
+        <v>0.5282217782217782</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>23</v>
@@ -1009,34 +1009,34 @@
         <v>23</v>
       </c>
       <c r="L7" s="9">
-        <v>0.6161568993696007</v>
+        <v>0.571012321012321</v>
       </c>
       <c r="M7" s="9">
-        <v>0.5790333878122811</v>
+        <v>0.5994838494838495</v>
       </c>
       <c r="N7" s="9">
-        <v>0.5583469530702778</v>
+        <v>0.5815850815850816</v>
       </c>
       <c r="O7" s="9">
-        <v>0.6368900303525566</v>
+        <v>0.6424408924408924</v>
       </c>
       <c r="P7" s="9">
-        <v>0.6375904739668457</v>
+        <v>0.6506826506826506</v>
       </c>
       <c r="Q7" s="9">
-        <v>0.5053934158300257</v>
+        <v>0.5231435231435232</v>
       </c>
       <c r="R7" s="9">
-        <v>0.5317300957272939</v>
+        <v>0.5092407592407593</v>
       </c>
       <c r="S7" s="9">
-        <v>0.6628531403222041</v>
+        <v>0.6644189144189144</v>
       </c>
       <c r="T7" s="9">
-        <v>0.5795937427037123</v>
+        <v>0.5777555777555777</v>
       </c>
       <c r="U7" s="9">
-        <v>0.45991127714219</v>
+        <v>0.4756909756909757</v>
       </c>
       <c r="V7" s="9">
         <v>0.2526266635535839</v>
@@ -1077,7 +1077,7 @@
         <v>23</v>
       </c>
       <c r="L8" s="9">
-        <v>0.6517774989544124</v>
+        <v>0.6311166875784191</v>
       </c>
       <c r="M8" s="9">
         <v>0.5692179004600586</v>
@@ -1145,7 +1145,7 @@
         <v>23</v>
       </c>
       <c r="L9" s="9">
-        <v>0.693083057073739</v>
+        <v>0.6224800645103485</v>
       </c>
       <c r="M9" s="9">
         <v>0.6097123913627811</v>
@@ -1213,7 +1213,7 @@
         <v>23</v>
       </c>
       <c r="L10" s="9">
-        <v>0.5781003017674954</v>
+        <v>0.4883603966087082</v>
       </c>
       <c r="M10" s="9">
         <v>0.554318149159362</v>
@@ -1254,25 +1254,25 @@
         <v>11</v>
       </c>
       <c r="C11" s="9">
-        <v>0.7060957178841309</v>
+        <v>0.6864176570458405</v>
       </c>
       <c r="D11" s="9">
-        <v>0.8278589420654912</v>
+        <v>0.8378607809847198</v>
       </c>
       <c r="E11" s="9">
-        <v>0.7712342569269521</v>
+        <v>0.7747877758913413</v>
       </c>
       <c r="F11" s="9">
-        <v>0.8329974811083123</v>
+        <v>0.8368421052631579</v>
       </c>
       <c r="G11" s="9">
-        <v>0.7297229219143577</v>
+        <v>0.6973684210526315</v>
       </c>
       <c r="H11" s="9">
-        <v>0.6760705289672544</v>
+        <v>0.6874363327674023</v>
       </c>
       <c r="I11" s="9">
-        <v>0.601360201511335</v>
+        <v>0.5953310696095077</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>23</v>
@@ -1281,34 +1281,34 @@
         <v>23</v>
       </c>
       <c r="L11" s="8">
-        <v>0.9090176322418136</v>
+        <v>0.9286078098471986</v>
       </c>
       <c r="M11" s="9">
-        <v>0.7426700251889169</v>
+        <v>0.749660441426146</v>
       </c>
       <c r="N11" s="9">
-        <v>0.6934508816120907</v>
+        <v>0.6971986417657046</v>
       </c>
       <c r="O11" s="9">
-        <v>0.6066498740554156</v>
+        <v>0.6166383701188455</v>
       </c>
       <c r="P11" s="9">
-        <v>0.5818639798488665</v>
+        <v>0.582258064516129</v>
       </c>
       <c r="Q11" s="9">
-        <v>0.6738539042821159</v>
+        <v>0.6729202037351443</v>
       </c>
       <c r="R11" s="9">
-        <v>0.6845340050377834</v>
+        <v>0.6131578947368421</v>
       </c>
       <c r="S11" s="9">
-        <v>0.7901259445843829</v>
+        <v>0.7716468590831919</v>
       </c>
       <c r="T11" s="9">
-        <v>0.6717380352644836</v>
+        <v>0.6694397283531409</v>
       </c>
       <c r="U11" s="9">
-        <v>0.5247858942065491</v>
+        <v>0.5459252971137522</v>
       </c>
       <c r="V11" s="9">
         <v>0.2358186397984887</v>
@@ -1322,25 +1322,25 @@
         <v>12</v>
       </c>
       <c r="C12" s="9">
-        <v>0.8009227074511787</v>
+        <v>0.77695730379627</v>
       </c>
       <c r="D12" s="9">
-        <v>0.8674714023889275</v>
+        <v>0.851415317618101</v>
       </c>
       <c r="E12" s="9">
-        <v>0.7777918220312203</v>
+        <v>0.7652182145223895</v>
       </c>
       <c r="F12" s="9">
-        <v>0.8564747519433735</v>
+        <v>0.8307299062766259</v>
       </c>
       <c r="G12" s="9">
-        <v>0.8094545914175567</v>
+        <v>0.8305879011644419</v>
       </c>
       <c r="H12" s="9">
-        <v>0.7335524236870379</v>
+        <v>0.7406986651519455</v>
       </c>
       <c r="I12" s="9">
-        <v>0.5896479807874613</v>
+        <v>0.5973681719208558</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>23</v>
@@ -1349,34 +1349,34 @@
         <v>23</v>
       </c>
       <c r="L12" s="9">
-        <v>0.8070530240788725</v>
+        <v>0.7626147874656821</v>
       </c>
       <c r="M12" s="8">
-        <v>0.9735195601339822</v>
+        <v>0.9675754993846445</v>
       </c>
       <c r="N12" s="9">
-        <v>0.8136257346900082</v>
+        <v>0.8019975385780554</v>
       </c>
       <c r="O12" s="9">
-        <v>0.6806547430954939</v>
+        <v>0.6774590551926536</v>
       </c>
       <c r="P12" s="9">
-        <v>0.7283700941667194</v>
+        <v>0.7219066553062576</v>
       </c>
       <c r="Q12" s="9">
-        <v>0.808380206029198</v>
+        <v>0.7824008330966582</v>
       </c>
       <c r="R12" s="9">
-        <v>0.6688997029640397</v>
+        <v>0.6713055003313453</v>
       </c>
       <c r="S12" s="9">
-        <v>0.8402325728370094</v>
+        <v>0.8437943765975575</v>
       </c>
       <c r="T12" s="9">
-        <v>0.7315300511913038</v>
+        <v>0.7154690902205812</v>
       </c>
       <c r="U12" s="9">
-        <v>0.6125260696454529</v>
+        <v>0.5933920287797028</v>
       </c>
       <c r="V12" s="9">
         <v>0.266889970296404</v>
@@ -1417,7 +1417,7 @@
         <v>23</v>
       </c>
       <c r="L13" s="9">
-        <v>0.7226142610978912</v>
+        <v>0.6957003364240584</v>
       </c>
       <c r="M13" s="9">
         <v>0.7240091901206204</v>
@@ -1485,7 +1485,7 @@
         <v>23</v>
       </c>
       <c r="L14" s="9">
-        <v>0.5734682366213072</v>
+        <v>0.5687090178382571</v>
       </c>
       <c r="M14" s="9">
         <v>0.585383910315166</v>
@@ -1526,25 +1526,25 @@
         <v>15</v>
       </c>
       <c r="C15" s="9">
-        <v>0.4362152244729846</v>
+        <v>0.3985592357685381</v>
       </c>
       <c r="D15" s="9">
-        <v>0.3221627288725802</v>
+        <v>0.3056142823584684</v>
       </c>
       <c r="E15" s="9">
-        <v>0.2988355112891751</v>
+        <v>0.2662281732049174</v>
       </c>
       <c r="F15" s="9">
-        <v>0.4429175871494365</v>
+        <v>0.4128885756792733</v>
       </c>
       <c r="G15" s="9">
-        <v>0.4474107911783428</v>
+        <v>0.4604964372406233</v>
       </c>
       <c r="H15" s="9">
-        <v>0.5619500505485453</v>
+        <v>0.5389554459321901</v>
       </c>
       <c r="I15" s="9">
-        <v>0.3615905942262328</v>
+        <v>0.3994205622112599</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>23</v>
@@ -1553,34 +1553,34 @@
         <v>23</v>
       </c>
       <c r="L15" s="9">
-        <v>0.4402965514659078</v>
+        <v>0.3534570511314697</v>
       </c>
       <c r="M15" s="9">
-        <v>0.4651963904594301</v>
+        <v>0.4625322997416021</v>
       </c>
       <c r="N15" s="9">
-        <v>0.5471224772531545</v>
+        <v>0.5369978858350951</v>
       </c>
       <c r="O15" s="9">
-        <v>0.582132025311716</v>
+        <v>0.58656330749354</v>
       </c>
       <c r="P15" s="8">
-        <v>0.9370951435953121</v>
+        <v>0.9791715605669093</v>
       </c>
       <c r="Q15" s="9">
-        <v>0.5462612798142809</v>
+        <v>0.5359799545846058</v>
       </c>
       <c r="R15" s="9">
-        <v>0.3503201407870596</v>
+        <v>0.3555712160363323</v>
       </c>
       <c r="S15" s="9">
-        <v>0.4708503388624705</v>
+        <v>0.4778795709028267</v>
       </c>
       <c r="T15" s="9">
-        <v>0.469390047553076</v>
+        <v>0.487902278599953</v>
       </c>
       <c r="U15" s="9">
-        <v>0.3926685887595013</v>
+        <v>0.3990290501918409</v>
       </c>
       <c r="V15" s="9">
         <v>0.2425955741940315</v>
@@ -1621,7 +1621,7 @@
         <v>23</v>
       </c>
       <c r="L16" s="9">
-        <v>0.686268773161693</v>
+        <v>0.6893895065340355</v>
       </c>
       <c r="M16" s="9">
         <v>0.7268383070021455</v>
@@ -1689,7 +1689,7 @@
         <v>23</v>
       </c>
       <c r="L17" s="9">
-        <v>0.6822442200809025</v>
+        <v>0.6246587956720492</v>
       </c>
       <c r="M17" s="9">
         <v>0.5454993915874634</v>
@@ -1757,7 +1757,7 @@
         <v>23</v>
       </c>
       <c r="L18" s="9">
-        <v>0.6521767853603753</v>
+        <v>0.6235713813833652</v>
       </c>
       <c r="M18" s="9">
         <v>0.5157560943383762</v>
@@ -1825,7 +1825,7 @@
         <v>23</v>
       </c>
       <c r="L19" s="9">
-        <v>0.3826047769265435</v>
+        <v>0.288418206399279</v>
       </c>
       <c r="M19" s="9">
         <v>0.2852636322667869</v>
@@ -1893,7 +1893,7 @@
         <v>23</v>
       </c>
       <c r="L20" s="9">
-        <v>0.3171678858484602</v>
+        <v>0.2045516120292604</v>
       </c>
       <c r="M20" s="9">
         <v>0.2586471597579698</v>
@@ -1932,25 +1932,25 @@
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="9">
-        <v>0.5950791627375054</v>
+        <v>0.5911523355305596</v>
       </c>
       <c r="D22" s="9">
-        <v>0.6340735537954629</v>
+        <v>0.6335096123274141</v>
       </c>
       <c r="E22" s="9">
-        <v>0.5900419797904971</v>
+        <v>0.5881901813559488</v>
       </c>
       <c r="F22" s="9">
-        <v>0.6116863684081461</v>
+        <v>0.6134407436271602</v>
       </c>
       <c r="G22" s="9">
-        <v>0.6405654466356258</v>
+        <v>0.6391701995579466</v>
       </c>
       <c r="H22" s="9">
-        <v>0.5887496106024117</v>
+        <v>0.5889554720406242</v>
       </c>
       <c r="I22" s="9">
-        <v>0.5170042839480642</v>
+        <v>0.5219256242580397</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>23</v>
@@ -1959,34 +1959,34 @@
         <v>23</v>
       </c>
       <c r="L22" s="9">
-        <v>0.6422025621083497</v>
+        <v>0.6056881626712747</v>
       </c>
       <c r="M22" s="9">
-        <v>0.59207081933442</v>
+        <v>0.5945463845998242</v>
       </c>
       <c r="N22" s="9">
-        <v>0.5884655349160252</v>
+        <v>0.5886170237731682</v>
       </c>
       <c r="O22" s="9">
-        <v>0.5351237096403306</v>
+        <v>0.5353549072451216</v>
       </c>
       <c r="P22" s="9">
-        <v>0.543963877853721</v>
+        <v>0.5431152791252254</v>
       </c>
       <c r="Q22" s="9">
-        <v>0.5764781372578078</v>
+        <v>0.5760540638225131</v>
       </c>
       <c r="R22" s="9">
-        <v>0.5605935300391303</v>
+        <v>0.5552780983803525</v>
       </c>
       <c r="S22" s="8">
-        <v>0.6617144525781813</v>
+        <v>0.6596798515668796</v>
       </c>
       <c r="T22" s="9">
-        <v>0.6206984829564868</v>
+        <v>0.6194941661509865</v>
       </c>
       <c r="U22" s="9">
-        <v>0.4789424590873652</v>
+        <v>0.480827564021314</v>
       </c>
       <c r="V22" s="9">
         <v>0.2525957144421507</v>
@@ -2064,25 +2064,25 @@
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="9">
-        <v>0.8325930638518557</v>
-      </c>
-      <c r="D27" s="8">
-        <v>0.8470194614349639</v>
+        <v>0.8355683181540132</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0.843948512539462</v>
       </c>
       <c r="E27" s="9">
-        <v>0.7856812084987286</v>
-      </c>
-      <c r="F27" s="9">
-        <v>0.825127869973535</v>
+        <v>0.7900824301343616</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0.8442304659166722</v>
       </c>
       <c r="G27" s="9">
-        <v>0.8102775010492738</v>
+        <v>0.8036671029611815</v>
       </c>
       <c r="H27" s="9">
-        <v>0.6334619978764481</v>
+        <v>0.6350996109242726</v>
       </c>
       <c r="I27" s="9">
-        <v>0.562487841954412</v>
+        <v>0.5649516931878795</v>
       </c>
       <c r="J27" s="9" t="s">
         <v>23</v>
@@ -2091,34 +2091,34 @@
         <v>23</v>
       </c>
       <c r="L27" s="9">
-        <v>0.751326769228619</v>
+        <v>0.7556693526991379</v>
       </c>
       <c r="M27" s="9">
-        <v>0.6991457636376401</v>
+        <v>0.7031024411549016</v>
       </c>
       <c r="N27" s="9">
-        <v>0.6427282091181838</v>
+        <v>0.6422269487762176</v>
       </c>
       <c r="O27" s="9">
-        <v>0.5719937716489643</v>
+        <v>0.5694710925400618</v>
       </c>
       <c r="P27" s="9">
-        <v>0.5414556012017099</v>
+        <v>0.5369960812746044</v>
       </c>
       <c r="Q27" s="9">
-        <v>0.666246727420569</v>
+        <v>0.6686089213326457</v>
       </c>
       <c r="R27" s="9">
-        <v>0.6876082197947366</v>
+        <v>0.6857143806573156</v>
       </c>
       <c r="S27" s="9">
-        <v>0.7593664626693892</v>
+        <v>0.7533063541494186</v>
       </c>
       <c r="T27" s="9">
-        <v>0.6978078984318343</v>
+        <v>0.6938093982886983</v>
       </c>
       <c r="U27" s="9">
-        <v>0.4971384665413366</v>
+        <v>0.4990957398990363</v>
       </c>
       <c r="V27" s="9">
         <v>0.208925063943646</v>
@@ -2130,25 +2130,25 @@
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="9">
-        <v>0.5523029362939758</v>
+        <v>0.5481104333791165</v>
       </c>
       <c r="D28" s="9">
-        <v>0.5698831880742086</v>
+        <v>0.5768306641626223</v>
       </c>
       <c r="E28" s="9">
-        <v>0.5527333397584625</v>
+        <v>0.5515820772042</v>
       </c>
       <c r="F28" s="9">
-        <v>0.6183802732469038</v>
+        <v>0.6205687187082271</v>
       </c>
       <c r="G28" s="9">
-        <v>0.6216473204970703</v>
+        <v>0.6150689583260652</v>
       </c>
       <c r="H28" s="8">
-        <v>0.6843374968725182</v>
+        <v>0.6871789478225553</v>
       </c>
       <c r="I28" s="9">
-        <v>0.5352448003582975</v>
+        <v>0.5429234779317477</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>23</v>
@@ -2157,34 +2157,34 @@
         <v>23</v>
       </c>
       <c r="L28" s="9">
-        <v>0.6347794392913119</v>
+        <v>0.5782423674274493</v>
       </c>
       <c r="M28" s="9">
-        <v>0.6109903707966799</v>
+        <v>0.6164785463784395</v>
       </c>
       <c r="N28" s="9">
-        <v>0.5940811819073996</v>
+        <v>0.599478359641083</v>
       </c>
       <c r="O28" s="9">
-        <v>0.5727559303087378</v>
+        <v>0.5758638019390909</v>
       </c>
       <c r="P28" s="9">
-        <v>0.5801950724131849</v>
+        <v>0.5828923246897985</v>
       </c>
       <c r="Q28" s="9">
-        <v>0.5427187670099285</v>
+        <v>0.5460820483632336</v>
       </c>
       <c r="R28" s="9">
-        <v>0.5743281108974158</v>
+        <v>0.5555550215399206</v>
       </c>
       <c r="S28" s="9">
-        <v>0.6793022951034604</v>
+        <v>0.6759196328225643</v>
       </c>
       <c r="T28" s="9">
-        <v>0.5942054816139313</v>
+        <v>0.5933781872420358</v>
       </c>
       <c r="U28" s="9">
-        <v>0.461484903242399</v>
+        <v>0.4688687235335968</v>
       </c>
       <c r="V28" s="9">
         <v>0.2553364416183978</v>
@@ -2196,25 +2196,25 @@
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="9">
-        <v>0.6185194446461195</v>
+        <v>0.6061951661742485</v>
       </c>
       <c r="D29" s="9">
-        <v>0.6355314498947261</v>
+        <v>0.6290105436377385</v>
       </c>
       <c r="E29" s="9">
-        <v>0.5887719952111737</v>
+        <v>0.579735806092556</v>
       </c>
       <c r="F29" s="9">
-        <v>0.6407431094343677</v>
+        <v>0.6295883380069857</v>
       </c>
       <c r="G29" s="9">
-        <v>0.639801380355946</v>
+        <v>0.6466451715177792</v>
       </c>
       <c r="H29" s="9">
-        <v>0.6454604597893673</v>
+        <v>0.6422907871590777</v>
       </c>
       <c r="I29" s="9">
-        <v>0.536906103116229</v>
+        <v>0.5460161349399134</v>
       </c>
       <c r="J29" s="9" t="s">
         <v>23</v>
@@ -2223,34 +2223,34 @@
         <v>23</v>
       </c>
       <c r="L29" s="9">
-        <v>0.6459401692851343</v>
+        <v>0.6139741398787006</v>
       </c>
       <c r="M29" s="9">
-        <v>0.6253569494743405</v>
+        <v>0.6246909267948835</v>
       </c>
       <c r="N29" s="9">
-        <v>0.6720803469474519</v>
+        <v>0.6666421500649489</v>
       </c>
       <c r="O29" s="9">
-        <v>0.6276629337759644</v>
+        <v>0.6279718323457103</v>
       </c>
       <c r="P29" s="8">
-        <v>0.6843939037669884</v>
+        <v>0.6827780440518729</v>
       </c>
       <c r="Q29" s="9">
-        <v>0.6587114496840005</v>
+        <v>0.6496462751434467</v>
       </c>
       <c r="R29" s="9">
-        <v>0.5334404357578727</v>
+        <v>0.5349718102811883</v>
       </c>
       <c r="S29" s="9">
-        <v>0.6673238585635877</v>
+        <v>0.6694420657237685</v>
       </c>
       <c r="T29" s="9">
-        <v>0.6081371468425586</v>
+        <v>0.6086274008577895</v>
       </c>
       <c r="U29" s="9">
-        <v>0.5033784217224333</v>
+        <v>0.5008237058357512</v>
       </c>
       <c r="V29" s="9">
         <v>0.3230802477871418</v>
@@ -2289,7 +2289,7 @@
         <v>23</v>
       </c>
       <c r="L30" s="9">
-        <v>0.5085484170540704</v>
+        <v>0.4352999988709884</v>
       </c>
       <c r="M30" s="9">
         <v>0.4012915694876491</v>
@@ -2328,25 +2328,25 @@
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="9">
-        <v>0.5962876592709376</v>
+        <v>0.5929022774997944</v>
       </c>
       <c r="D32" s="9">
-        <v>0.6379943331468374</v>
+        <v>0.6373332383808185</v>
       </c>
       <c r="E32" s="9">
-        <v>0.592453143828707</v>
+        <v>0.5910065863193952</v>
       </c>
       <c r="F32" s="9">
-        <v>0.6094519530415849</v>
+        <v>0.6119860205358545</v>
       </c>
       <c r="G32" s="8">
-        <v>0.6417955836617656</v>
+        <v>0.6402093413874497</v>
       </c>
       <c r="H32" s="9">
-        <v>0.5824106583235998</v>
+        <v>0.5827380061654928</v>
       </c>
       <c r="I32" s="9">
-        <v>0.512917697874657</v>
+        <v>0.5177308380323076</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>23</v>
@@ -2355,34 +2355,34 @@
         <v>23</v>
       </c>
       <c r="L32" s="9">
-        <v>0.6351486987147839</v>
+        <v>0.5957964647190691</v>
       </c>
       <c r="M32" s="9">
-        <v>0.5841961633490774</v>
+        <v>0.5863908709539685</v>
       </c>
       <c r="N32" s="9">
-        <v>0.5847231398414294</v>
+        <v>0.584587569968733</v>
       </c>
       <c r="O32" s="9">
-        <v>0.5304673169730156</v>
+        <v>0.5306908397458147</v>
       </c>
       <c r="P32" s="9">
-        <v>0.5418561954845051</v>
+        <v>0.5410116636431034</v>
       </c>
       <c r="Q32" s="9">
-        <v>0.5729775610131277</v>
+        <v>0.5721426361943347</v>
       </c>
       <c r="R32" s="9">
-        <v>0.5416608339836912</v>
+        <v>0.5368769454907912</v>
       </c>
       <c r="S32" s="9">
-        <v>0.6415729094778658</v>
+        <v>0.6397417685676944</v>
       </c>
       <c r="T32" s="9">
-        <v>0.6143559699533426</v>
+        <v>0.6132720848283925</v>
       </c>
       <c r="U32" s="9">
-        <v>0.4747467233800197</v>
+        <v>0.4764433178205735</v>
       </c>
       <c r="V32" s="9">
         <v>0.2507485513157298</v>
@@ -2412,16 +2412,16 @@
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="8">
-        <v>0.8201398209616713</v>
+        <v>0.8234993659411382</v>
       </c>
       <c r="D37" s="9">
-        <v>0.6490922030198264</v>
+        <v>0.6519068856037634</v>
       </c>
       <c r="E37" s="9">
-        <v>0.6243140146054135</v>
+        <v>0.6240810970156861</v>
       </c>
       <c r="F37" s="9">
-        <v>0.6604802618593242</v>
+        <v>0.6579814682486173</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2430,16 +2430,16 @@
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="9">
-        <v>0.5829894115741242</v>
+        <v>0.5824321703560462</v>
       </c>
       <c r="D38" s="8">
-        <v>0.6181205788407093</v>
+        <v>0.6027815977272507</v>
       </c>
       <c r="E38" s="9">
-        <v>0.5801482644871863</v>
+        <v>0.5841590162023291</v>
       </c>
       <c r="F38" s="9">
-        <v>0.5773301977143016</v>
+        <v>0.5734303912845294</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2448,16 +2448,16 @@
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="9">
-        <v>0.6246734759084667</v>
+        <v>0.6182350050858616</v>
       </c>
       <c r="D39" s="9">
-        <v>0.6094355773969102</v>
+        <v>0.600760353992564</v>
       </c>
       <c r="E39" s="8">
-        <v>0.6536411167297491</v>
+        <v>0.6503458456801725</v>
       </c>
       <c r="F39" s="9">
-        <v>0.5780699657216131</v>
+        <v>0.5784662456746243</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2469,7 +2469,7 @@
         <v>0.4345834299156038</v>
       </c>
       <c r="D40" s="9">
-        <v>0.4306543806266085</v>
+        <v>0.4062382412322479</v>
       </c>
       <c r="E40" s="9">
         <v>0.3932729055065755</v>
@@ -2484,16 +2484,16 @@
       </c>
       <c r="B42" s="13"/>
       <c r="C42" s="9">
-        <v>0.5474154391327316</v>
+        <v>0.5450835351191705</v>
       </c>
       <c r="D42" s="9">
-        <v>0.5630607203477817</v>
+        <v>0.552968493609525</v>
       </c>
       <c r="E42" s="9">
-        <v>0.5325783948663917</v>
+        <v>0.5338376729081969</v>
       </c>
       <c r="F42" s="8">
-        <v>0.605293475098413</v>
+        <v>0.6032927017359236</v>
       </c>
     </row>
   </sheetData>

--- a/results/acl/xlm-roberta/results_pos_postprocessed.xlsx
+++ b/results/acl/xlm-roberta/results_pos_postprocessed.xlsx
@@ -699,7 +699,7 @@
         <v>0.5052137931034483</v>
       </c>
       <c r="V2" s="9">
-        <v>0.1961952255621739</v>
+        <v>0.2118068965517241</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -767,7 +767,7 @@
         <v>0.402435559932577</v>
       </c>
       <c r="V3" s="9">
-        <v>0.203014482990906</v>
+        <v>0.1805458229957766</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -1039,7 +1039,7 @@
         <v>0.4756909756909757</v>
       </c>
       <c r="V7" s="9">
-        <v>0.2526266635535839</v>
+        <v>0.2757242757242757</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1311,7 +1311,7 @@
         <v>0.5459252971137522</v>
       </c>
       <c r="V11" s="9">
-        <v>0.2358186397984887</v>
+        <v>0.216893039049236</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1379,7 +1379,7 @@
         <v>0.5933920287797028</v>
       </c>
       <c r="V12" s="9">
-        <v>0.266889970296404</v>
+        <v>0.2738805263656158</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1515,7 +1515,7 @@
         <v>0.4047098639215963</v>
       </c>
       <c r="V14" s="9">
-        <v>0.4873371924746744</v>
+        <v>0.2939434534301629</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1583,7 +1583,7 @@
         <v>0.3990290501918409</v>
       </c>
       <c r="V15" s="9">
-        <v>0.2425955741940315</v>
+        <v>0.2832591683289857</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1651,7 +1651,7 @@
         <v>0.5224302711137118</v>
       </c>
       <c r="V16" s="9">
-        <v>0.3700759993038232</v>
+        <v>0.2672127950068266</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1719,7 +1719,7 @@
         <v>0.4862367218074786</v>
       </c>
       <c r="V17" s="9">
-        <v>0.2688063225868633</v>
+        <v>0.2971181376820615</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1989,7 +1989,7 @@
         <v>0.480827564021314</v>
       </c>
       <c r="V22" s="9">
-        <v>0.2525957144421507</v>
+        <v>0.2408601378302409</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -2121,7 +2121,7 @@
         <v>0.4990957398990363</v>
       </c>
       <c r="V27" s="9">
-        <v>0.208925063943646</v>
+        <v>0.2075536661425302</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -2187,7 +2187,7 @@
         <v>0.4688687235335968</v>
       </c>
       <c r="V28" s="9">
-        <v>0.2553364416183978</v>
+        <v>0.2561708439026856</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -2253,7 +2253,7 @@
         <v>0.5008237058357512</v>
       </c>
       <c r="V29" s="9">
-        <v>0.3230802477871418</v>
+        <v>0.2733596891596734</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -2319,7 +2319,7 @@
         <v>0.4369851020139097</v>
       </c>
       <c r="V30" s="9">
-        <v>0.2156524519137334</v>
+        <v>0.2227304056875329</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -2385,7 +2385,7 @@
         <v>0.4764433178205735</v>
       </c>
       <c r="V32" s="9">
-        <v>0.2507485513157298</v>
+        <v>0.2399536512231055</v>
       </c>
     </row>
     <row r="36" spans="1:6">
